--- a/Jobster/ProjectFiles/jobster.xlsx
+++ b/Jobster/ProjectFiles/jobster.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishwas\Documents\Teaching\Job-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mourad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF79F04-3BCA-4A72-8F12-1877B04264CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE802A-E9FE-455F-B0F3-803739C51C7F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{615001D1-AE47-4166-9EB0-CA39EA4C957E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{615001D1-AE47-4166-9EB0-CA39EA4C957E}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Employer - Posting jobs</t>
   </si>
@@ -154,6 +154,27 @@
   </si>
   <si>
     <t>VC</t>
+  </si>
+  <si>
+    <t>This functionality allows the job seeker to view pre-selected job posts bases on the jobseeker's location, level of experience and technical field</t>
+  </si>
+  <si>
+    <t>JSP - create new page for displaying recommended job posts</t>
+  </si>
+  <si>
+    <t>JobSeeker - Job recommendations for the Jobseeker</t>
+  </si>
+  <si>
+    <t>Create tables: 1. for storing recommendations 2. for storing user category Or profession</t>
+  </si>
+  <si>
+    <t>trigger: for updating recommendations table everytime a new job post is added</t>
+  </si>
+  <si>
+    <t>add column for 'years of experience' in Users table and in Job_post table</t>
+  </si>
+  <si>
+    <t>SQL - Query  tables to get matches based on location / field / level of experience</t>
   </si>
 </sst>
 </file>
@@ -197,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,6 +228,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,21 +547,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B445D3-750C-40A6-99E4-4A6A4E18A835}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -551,7 +575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -565,7 +589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -579,7 +603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -593,7 +617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -604,7 +628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -615,7 +639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -626,7 +650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -637,7 +661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -648,18 +672,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -670,7 +697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -681,7 +708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -692,7 +719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -703,7 +730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -714,7 +741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -725,7 +752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -739,7 +766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -753,27 +780,61 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
     </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="5"/>
+      <c r="D44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C42:C44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jobster/ProjectFiles/jobster.xlsx
+++ b/Jobster/ProjectFiles/jobster.xlsx
@@ -1,38 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mourad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AE802A-E9FE-455F-B0F3-803739C51C7F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC829A2B-40CE-4AD2-8B7E-D9F9945A16EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{615001D1-AE47-4166-9EB0-CA39EA4C957E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+  <si>
+    <t>RqmtNo</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Create GIT Project</t>
+  </si>
+  <si>
+    <t>create ageneral GIT project</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Admin - User Account functionality</t>
+  </si>
+  <si>
+    <t>This is an admin functionality for the web app. This functionality is about creating different types of users and their associated properties.</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>Jobseeker - Search and View Job Posts</t>
+  </si>
+  <si>
+    <t>This functionality is about a jobseeker looking for job posts as per his requirement.</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Jobseeker - upload /download/delete resume/s</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
   <si>
     <t>Employer - Posting jobs</t>
   </si>
   <si>
+    <t>SK</t>
+  </si>
+  <si>
     <t>Employer - Search jobseekers</t>
   </si>
   <si>
+    <t>ZD</t>
+  </si>
+  <si>
     <t>Jobseeker - Add jobs as favorites after search</t>
   </si>
   <si>
@@ -42,37 +93,40 @@
     <t>JobSeeker - Job recommendations for the JS</t>
   </si>
   <si>
+    <t>MouradH</t>
+  </si>
+  <si>
     <t>Communication - Jobseeker and Employer communicates.</t>
   </si>
   <si>
+    <t>MarlonH</t>
+  </si>
+  <si>
     <t>Jobseeker - Add employers as favorites.</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
     <t>Jobseeker - Apply for a job</t>
   </si>
   <si>
-    <t>Admin - User Account functionality</t>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>Admin - Type of Jobs,Job Locations</t>
   </si>
   <si>
     <t>Employer - Select applicants and move to the next step</t>
   </si>
   <si>
-    <t>Admin - Type of Jobs,Job Locations</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>RqmtNo</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>This is an admin functionality for the web app. This functionality is about creating different types of users and their associated properties.</t>
-  </si>
-  <si>
-    <t>This functionality is about a jobseeker looking for job posts as per his requirement.</t>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Bulletin board - Publish news,tech articles etc..</t>
+  </si>
+  <si>
+    <t>Sumit</t>
   </si>
   <si>
     <t>Sprint planning</t>
@@ -81,90 +135,69 @@
     <t>Tasks</t>
   </si>
   <si>
+    <t>Subtasks</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>Admin-User Account Functionality - Login functionality - User Authentication,Register new User ,Authorisation - based on the roles JS,E</t>
+  </si>
+  <si>
     <t>Login Page  with a link to Register Users</t>
   </si>
   <si>
+    <t>Web Page for Login and a link to Register as New User</t>
+  </si>
+  <si>
+    <t>Design and Create User table</t>
+  </si>
+  <si>
     <t>Register new User Page</t>
   </si>
   <si>
-    <t>Subtasks</t>
-  </si>
-  <si>
-    <t>Admin-User Account Functionality - Login functionality - User Authentication,Register new User ,Authorisation - based on the roles JS,E</t>
-  </si>
-  <si>
-    <t>Web Page for Login and a link to Register as New User</t>
-  </si>
-  <si>
-    <t>Design and Create User table</t>
-  </si>
-  <si>
-    <t>Assign</t>
-  </si>
-  <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>JY</t>
-  </si>
-  <si>
-    <t>Jobseeker - upload /download/delete resume/s</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>Jobseeker - Search and View Job Posts</t>
-  </si>
-  <si>
-    <t>ZD</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>MouradH</t>
-  </si>
-  <si>
-    <t>MarlonH</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Bulletin board - Publish news,tech articles etc..</t>
-  </si>
-  <si>
-    <t>Sumit</t>
-  </si>
-  <si>
-    <t>Create GIT Project</t>
-  </si>
-  <si>
-    <t>create ageneral GIT project</t>
-  </si>
-  <si>
-    <t>VC</t>
-  </si>
-  <si>
-    <t>This functionality allows the job seeker to view pre-selected job posts bases on the jobseeker's location, level of experience and technical field</t>
+    <t xml:space="preserve">Jobseeker - Search and View Job Posts,Jobseeker - Add jobs as favorites after search </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View a job posts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and create tables for getting job posts information </t>
+  </si>
+  <si>
+    <t>Create queries for viewing job posts</t>
+  </si>
+  <si>
+    <t>Implement business logic in Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Web page for viewing posts </t>
+  </si>
+  <si>
+    <t>Search for the job posts</t>
+  </si>
+  <si>
+    <t>Add new controls to the web page</t>
+  </si>
+  <si>
+    <t>Add job posts to favorites</t>
+  </si>
+  <si>
+    <t>Create queries for favorites user posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new components to the web page </t>
+  </si>
+  <si>
+    <t>Change behavior of favorite component on page if post was liked before</t>
+  </si>
+  <si>
+    <t>JobSeeker - Job recommendations for the Jobseeker</t>
   </si>
   <si>
     <t>JSP - create new page for displaying recommended job posts</t>
   </si>
   <si>
-    <t>JobSeeker - Job recommendations for the Jobseeker</t>
-  </si>
-  <si>
     <t>Create tables: 1. for storing recommendations 2. for storing user category Or profession</t>
   </si>
   <si>
@@ -174,7 +207,13 @@
     <t>add column for 'years of experience' in Users table and in Job_post table</t>
   </si>
   <si>
-    <t>SQL - Query  tables to get matches based on location / field / level of experience</t>
+    <t>Edit index.jsp to display the recommended page link</t>
+  </si>
+  <si>
+    <t>create recommnded jsp for dislpaying the job posts</t>
+  </si>
+  <si>
+    <t>SQL - Query tables to get matches based on location / field / level of experience</t>
   </si>
 </sst>
 </file>
@@ -184,18 +223,18 @@
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,16 +257,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -546,295 +592,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B445D3-750C-40A6-99E4-4A6A4E18A835}">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="77.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
       <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>9</v>
       </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-      <c r="D44" s="2" t="s">
-        <v>48</v>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C43" s="7"/>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C46" s="8"/>
+      <c r="D46" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C47" s="8"/>
+      <c r="D47" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>